--- a/data/trans_orig/TAM_HOG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Clase-trans_orig.xlsx
@@ -724,57 +724,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,18</t>
+          <t>2,97; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,21</t>
+          <t>2,96; 3,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,79</t>
+          <t>2,51; 2,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,85</t>
+          <t>2,63; 2,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,27</t>
+          <t>2,95; 3,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,14</t>
+          <t>2,84; 3,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 2,94</t>
+          <t>2,7; 2,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 2,88</t>
+          <t>2,69; 2,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,18</t>
+          <t>3,0; 3,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,15</t>
+          <t>2,95; 3,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,81</t>
+          <t>2,64; 2,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,01</t>
+          <t>2,74; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,27 +874,27 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,09</t>
+          <t>2,83; 3,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,75</t>
+          <t>2,53; 2,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,34</t>
+          <t>3,09; 3,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,39</t>
+          <t>3,14; 3,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,04</t>
+          <t>2,78; 3,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,14</t>
+          <t>2,96; 3,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 3,25</t>
+          <t>3,07; 3,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,02</t>
+          <t>2,84; 3,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,81</t>
+          <t>2,67; 2,83</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 3,29</t>
+          <t>3,08; 3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,24</t>
+          <t>3,06; 3,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,04</t>
+          <t>2,83; 3,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,66</t>
+          <t>2,6; 3,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,23</t>
+          <t>2,91; 3,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,03</t>
+          <t>2,62; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,83</t>
+          <t>2,51; 2,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,0</t>
+          <t>2,82; 3,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,6</t>
+          <t>2,61; 3,62</t>
         </is>
       </c>
     </row>
@@ -1149,47 +1149,47 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 3,21</t>
+          <t>3,05; 3,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,0</t>
+          <t>2,86; 3,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,7</t>
+          <t>2,52; 2,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 3,39</t>
+          <t>3,19; 3,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 3,4</t>
+          <t>3,23; 3,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,08</t>
+          <t>2,9; 3,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 2,96</t>
+          <t>2,8; 2,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,24</t>
+          <t>3,13; 3,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 3,26</t>
+          <t>3,15; 3,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,3</t>
+          <t>3,02; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,27</t>
+          <t>3,03; 3,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,27 +1299,27 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 2,77</t>
+          <t>2,51; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 3,46</t>
+          <t>3,23; 3,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 3,3</t>
+          <t>3,1; 3,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,07</t>
+          <t>2,87; 3,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,81</t>
+          <t>2,49; 2,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 3,26</t>
+          <t>3,11; 3,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,75</t>
+          <t>2,53; 2,76</t>
         </is>
       </c>
     </row>
@@ -1424,47 +1424,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 3,95</t>
+          <t>3,7; 3,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 3,84</t>
+          <t>3,57; 3,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 3,78</t>
+          <t>3,43; 3,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 3,7</t>
+          <t>3,25; 3,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 3,2</t>
+          <t>3,05; 3,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,12</t>
+          <t>2,96; 3,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 2,96</t>
+          <t>2,8; 2,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 2,83</t>
+          <t>2,65; 2,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 3,33</t>
+          <t>3,19; 3,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,01</t>
+          <t>2,83; 3,01</t>
         </is>
       </c>
     </row>
@@ -1569,37 +1569,37 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,21</t>
+          <t>3,12; 3,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,99</t>
+          <t>2,89; 2,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,11</t>
+          <t>2,69; 3,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,27</t>
+          <t>3,17; 3,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,2</t>
+          <t>3,11; 3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 2,96</t>
+          <t>2,88; 2,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 2,83</t>
+          <t>2,71; 2,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,19</t>
+          <t>3,13; 3,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,94</t>
+          <t>2,72; 2,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TAM_HOG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
